--- a/dataset/reallife/BPI-15/filter-40/result-D43-M1-dfg-50-less.xlsx
+++ b/dataset/reallife/BPI-15/filter-40/result-D43-M1-dfg-50-less.xlsx
@@ -205,7 +205,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
@@ -273,7 +273,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
@@ -341,7 +341,7 @@
         <v>0.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
@@ -409,7 +409,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
@@ -477,10 +477,10 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
         <v>349.0</v>
@@ -545,10 +545,10 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
         <v>349.0</v>
@@ -616,7 +616,7 @@
         <v>0.7</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
         <v>349.0</v>
@@ -681,10 +681,10 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="M9" t="n">
         <v>349.0</v>
@@ -719,55 +719,67 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C10" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J10" t="n">
         <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O10" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V10" t="n">
         <v>8.0</v>
@@ -805,10 +817,10 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="M11" t="n">
         <v>349.0</v>
@@ -873,10 +885,10 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M12" t="n">
         <v>349.0</v>
@@ -941,10 +953,10 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.0</v>
+        <v>0.2</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M13" t="n">
         <v>349.0</v>
@@ -979,25 +991,31 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C14" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J14" t="n">
         <v>0.0</v>
@@ -1006,28 +1024,34 @@
         <v>0.3</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O14" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P14" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V14" t="n">
         <v>12.0</v>
@@ -1035,55 +1059,67 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C15" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J15" t="n">
         <v>0.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O15" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P15" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V15" t="n">
         <v>13.0</v>
@@ -1121,10 +1157,10 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="M16" t="n">
         <v>349.0</v>
@@ -1189,10 +1225,10 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.0</v>
+        <v>0.6</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="M17" t="n">
         <v>349.0</v>
@@ -1227,55 +1263,67 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C18" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J18" t="n">
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.0</v>
+        <v>0.1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O18" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P18" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V18" t="n">
         <v>16.0</v>
@@ -1283,55 +1331,67 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C19" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J19" t="n">
         <v>0.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.0</v>
+        <v>0.1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O19" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P19" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V19" t="n">
         <v>17.0</v>
@@ -1339,55 +1399,67 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C20" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J20" t="n">
         <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.0</v>
+        <v>0.1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O20" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P20" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V20" t="n">
         <v>18.0</v>
@@ -1428,7 +1500,7 @@
         <v>1.0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.0</v>
+        <v>0.1</v>
       </c>
       <c r="M21" t="n">
         <v>349.0</v>
@@ -1463,67 +1535,55 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>106.0</v>
+        <v>0.0</v>
       </c>
       <c r="B22" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0</v>
+        <v>146.0</v>
       </c>
       <c r="D22" t="n">
-        <v>243.0</v>
+        <v>349.0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3037249283667622</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.7310344827586207</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7328767123287672</v>
+        <v>1.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4303030303030303</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.4291497975708502</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="M22" t="n">
-        <v>106.0</v>
+        <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="O22" t="n">
-        <v>107.0</v>
+        <v>146.0</v>
       </c>
       <c r="P22" t="n">
-        <v>243.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3037249283667622</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.7310344827586207</v>
+        <v>0.0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7328767123287672</v>
+        <v>1.0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.4303030303030303</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.4291497975708502</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V22" t="n">
         <v>20.0</v>
@@ -1558,13 +1618,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="M23" t="n">
         <v>349.0</v>
@@ -1626,13 +1686,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.3</v>
       </c>
-      <c r="K24" t="n">
-        <v>0.5</v>
-      </c>
       <c r="L24" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="M24" t="n">
         <v>349.0</v>
@@ -1694,13 +1754,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="M25" t="n">
         <v>349.0</v>
@@ -1762,13 +1822,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="M26" t="n">
         <v>349.0</v>
@@ -1803,55 +1863,67 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C27" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O27" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P27" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V27" t="n">
         <v>25.0</v>
@@ -1886,13 +1958,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M28" t="n">
         <v>349.0</v>
@@ -1954,13 +2026,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M29" t="n">
         <v>349.0</v>
@@ -2022,13 +2094,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M30" t="n">
         <v>349.0</v>
@@ -2090,13 +2162,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="K31" t="n">
         <v>1.0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M31" t="n">
         <v>349.0</v>
@@ -2152,13 +2224,13 @@
         <v>0.29494949494949496</v>
       </c>
       <c r="J32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L32" t="n">
         <v>0.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.5</v>
       </c>
       <c r="M32" t="n">
         <v>0.0</v>
@@ -2208,13 +2280,13 @@
         <v>0.29494949494949496</v>
       </c>
       <c r="J33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L33" t="n">
         <v>0.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.5</v>
       </c>
       <c r="M33" t="n">
         <v>0.0</v>
@@ -2270,13 +2342,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.3</v>
       </c>
-      <c r="K34" t="n">
-        <v>0.5</v>
-      </c>
       <c r="L34" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M34" t="n">
         <v>349.0</v>
@@ -2338,13 +2410,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L35" t="n">
         <v>0.3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.5</v>
       </c>
       <c r="M35" t="n">
         <v>349.0</v>
@@ -2406,13 +2478,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.5</v>
       </c>
       <c r="M36" t="n">
         <v>349.0</v>
@@ -2447,55 +2519,67 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C37" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D37" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L37" t="n">
         <v>0.3</v>
       </c>
-      <c r="K37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.7</v>
-      </c>
       <c r="M37" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O37" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P37" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V37" t="n">
         <v>35.0</v>
@@ -2503,55 +2587,67 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C38" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L38" t="n">
         <v>0.3</v>
       </c>
-      <c r="K38" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.7</v>
-      </c>
       <c r="M38" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O38" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P38" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V38" t="n">
         <v>36.0</v>
@@ -2559,55 +2655,67 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C39" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L39" t="n">
         <v>0.3</v>
       </c>
-      <c r="K39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.7</v>
-      </c>
       <c r="M39" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O39" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P39" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V39" t="n">
         <v>37.0</v>
@@ -2642,13 +2750,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L40" t="n">
         <v>0.3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.7</v>
       </c>
       <c r="M40" t="n">
         <v>349.0</v>
@@ -2710,13 +2818,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L41" t="n">
         <v>0.3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.7</v>
       </c>
       <c r="M41" t="n">
         <v>349.0</v>
@@ -2772,13 +2880,13 @@
         <v>0.29494949494949496</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="L42" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="M42" t="n">
         <v>0.0</v>
@@ -2828,13 +2936,13 @@
         <v>0.29494949494949496</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L43" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="M43" t="n">
         <v>0.0</v>
@@ -2884,13 +2992,13 @@
         <v>0.29494949494949496</v>
       </c>
       <c r="J44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.3</v>
       </c>
-      <c r="K44" t="n">
-        <v>0.5</v>
-      </c>
       <c r="L44" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="M44" t="n">
         <v>0.0</v>
@@ -2919,55 +3027,67 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C45" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O45" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P45" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V45" t="n">
         <v>43.0</v>
@@ -3002,13 +3122,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="L46" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="M46" t="n">
         <v>349.0</v>
@@ -3043,67 +3163,67 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>106.0</v>
+        <v>349.0</v>
       </c>
       <c r="B47" t="n">
-        <v>39.0</v>
+        <v>146.0</v>
       </c>
       <c r="C47" t="n">
-        <v>107.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n">
-        <v>243.0</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3037249283667622</v>
+        <v>1.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7310344827586207</v>
+        <v>0.705050505050505</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7328767123287672</v>
+        <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4303030303030303</v>
+        <v>0.705050505050505</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4291497975708502</v>
+        <v>0.8270142180094787</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="M47" t="n">
-        <v>106.0</v>
+        <v>349.0</v>
       </c>
       <c r="N47" t="n">
-        <v>39.0</v>
+        <v>146.0</v>
       </c>
       <c r="O47" t="n">
-        <v>107.0</v>
+        <v>0.0</v>
       </c>
       <c r="P47" t="n">
-        <v>243.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.3037249283667622</v>
+        <v>1.0</v>
       </c>
       <c r="R47" t="n">
-        <v>0.7310344827586207</v>
+        <v>0.705050505050505</v>
       </c>
       <c r="S47" t="n">
-        <v>0.7328767123287672</v>
+        <v>0.0</v>
       </c>
       <c r="T47" t="n">
-        <v>0.4303030303030303</v>
+        <v>0.705050505050505</v>
       </c>
       <c r="U47" t="n">
-        <v>0.4291497975708502</v>
+        <v>0.8270142180094787</v>
       </c>
       <c r="V47" t="n">
         <v>45.0</v>
@@ -3138,13 +3258,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="M48" t="n">
         <v>349.0</v>
@@ -3206,13 +3326,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="M49" t="n">
         <v>349.0</v>
@@ -3274,13 +3394,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="M50" t="n">
         <v>349.0</v>
@@ -3342,13 +3462,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K51" t="n">
         <v>1.0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="M51" t="n">
         <v>349.0</v>
@@ -3404,13 +3524,13 @@
         <v>0.29494949494949496</v>
       </c>
       <c r="J52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L52" t="n">
         <v>0.5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.3</v>
       </c>
       <c r="M52" t="n">
         <v>0.0</v>
@@ -3439,67 +3559,55 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B53" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L53" t="n">
         <v>0.5</v>
       </c>
-      <c r="K53" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.3</v>
-      </c>
       <c r="M53" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N53" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T53" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V53" t="n">
         <v>51.0</v>
@@ -3507,67 +3615,55 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B54" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E54" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L54" t="n">
         <v>0.5</v>
       </c>
-      <c r="K54" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.3</v>
-      </c>
       <c r="M54" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N54" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P54" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S54" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T54" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U54" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V54" t="n">
         <v>52.0</v>
@@ -3575,67 +3671,55 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B55" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L55" t="n">
         <v>0.5</v>
       </c>
-      <c r="K55" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.3</v>
-      </c>
       <c r="M55" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N55" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S55" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T55" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U55" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V55" t="n">
         <v>53.0</v>
@@ -3670,13 +3754,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K56" t="n">
         <v>0.5</v>
       </c>
-      <c r="K56" t="n">
-        <v>1.0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="M56" t="n">
         <v>349.0</v>
@@ -3711,55 +3795,67 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C57" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D57" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="L57" t="n">
         <v>0.5</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O57" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P57" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T57" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V57" t="n">
         <v>55.0</v>
@@ -3794,10 +3890,10 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L58" t="n">
         <v>0.5</v>
@@ -3862,10 +3958,10 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J59" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L59" t="n">
         <v>0.5</v>
@@ -3930,10 +4026,10 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L60" t="n">
         <v>0.5</v>
@@ -3998,7 +4094,7 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K61" t="n">
         <v>1.0</v>
@@ -4060,13 +4156,13 @@
         <v>0.29494949494949496</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="L62" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="M62" t="n">
         <v>0.0</v>
@@ -4116,13 +4212,13 @@
         <v>0.29494949494949496</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L63" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="M63" t="n">
         <v>0.0</v>
@@ -4151,67 +4247,55 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B64" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E64" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L64" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="M64" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N64" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O64" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P64" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T64" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V64" t="n">
         <v>62.0</v>
@@ -4219,67 +4303,55 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B65" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J65" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="L65" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="M65" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N65" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O65" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T65" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V65" t="n">
         <v>63.0</v>
@@ -4287,67 +4359,55 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B66" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K66" t="n">
         <v>0.5</v>
       </c>
-      <c r="K66" t="n">
-        <v>1.0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="M66" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N66" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O66" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P66" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S66" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T66" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U66" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V66" t="n">
         <v>64.0</v>
@@ -4355,55 +4415,67 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C67" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D67" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G67" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J67" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="L67" t="n">
-        <v>1.0</v>
+        <v>0.6</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O67" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P67" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S67" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T67" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V67" t="n">
         <v>65.0</v>
@@ -4411,55 +4483,67 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C68" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D68" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J68" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L68" t="n">
-        <v>1.0</v>
+        <v>0.6</v>
       </c>
       <c r="M68" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O68" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P68" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T68" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V68" t="n">
         <v>66.0</v>
@@ -4467,55 +4551,67 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C69" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D69" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G69" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K69" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L69" t="n">
-        <v>1.0</v>
+        <v>0.6</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O69" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P69" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S69" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T69" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V69" t="n">
         <v>67.0</v>
@@ -4523,55 +4619,67 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="C70" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="D70" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="G70" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="J70" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L70" t="n">
-        <v>1.0</v>
+        <v>0.6</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="N70" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="O70" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="P70" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.705050505050505</v>
       </c>
       <c r="S70" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T70" t="n">
-        <v>0.29494949494949496</v>
+        <v>0.705050505050505</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.8270142180094787</v>
       </c>
       <c r="V70" t="n">
         <v>68.0</v>
@@ -4606,13 +4714,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K71" t="n">
         <v>1.0</v>
       </c>
       <c r="L71" t="n">
-        <v>1.0</v>
+        <v>0.6</v>
       </c>
       <c r="M71" t="n">
         <v>349.0</v>
@@ -4647,67 +4755,55 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>106.0</v>
+        <v>0.0</v>
       </c>
       <c r="B72" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>107.0</v>
+        <v>146.0</v>
       </c>
       <c r="D72" t="n">
-        <v>243.0</v>
+        <v>349.0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3037249283667622</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.7310344827586207</v>
+        <v>0.0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7328767123287672</v>
+        <v>1.0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4303030303030303</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.4291497975708502</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L72" t="n">
         <v>0.7</v>
       </c>
-      <c r="K72" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M72" t="n">
-        <v>106.0</v>
+        <v>0.0</v>
       </c>
       <c r="N72" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="O72" t="n">
-        <v>107.0</v>
+        <v>146.0</v>
       </c>
       <c r="P72" t="n">
-        <v>243.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.3037249283667622</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0.7310344827586207</v>
+        <v>0.0</v>
       </c>
       <c r="S72" t="n">
-        <v>0.7328767123287672</v>
+        <v>1.0</v>
       </c>
       <c r="T72" t="n">
-        <v>0.4303030303030303</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0.4291497975708502</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V72" t="n">
         <v>70.0</v>
@@ -4715,67 +4811,55 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B73" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E73" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L73" t="n">
         <v>0.7</v>
       </c>
-      <c r="K73" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M73" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N73" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O73" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P73" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T73" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V73" t="n">
         <v>71.0</v>
@@ -4783,67 +4867,55 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B74" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L74" t="n">
         <v>0.7</v>
       </c>
-      <c r="K74" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M74" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N74" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O74" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P74" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T74" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V74" t="n">
         <v>72.0</v>
@@ -4851,67 +4923,55 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B75" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L75" t="n">
         <v>0.7</v>
       </c>
-      <c r="K75" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M75" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N75" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O75" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P75" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S75" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T75" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U75" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V75" t="n">
         <v>73.0</v>
@@ -4919,67 +4979,55 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B76" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L76" t="n">
         <v>0.7</v>
       </c>
-      <c r="K76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M76" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N76" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O76" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P76" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S76" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T76" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U76" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V76" t="n">
         <v>74.0</v>
@@ -4987,67 +5035,55 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>106.0</v>
+        <v>0.0</v>
       </c>
       <c r="B77" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>107.0</v>
+        <v>146.0</v>
       </c>
       <c r="D77" t="n">
-        <v>243.0</v>
+        <v>349.0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3037249283667622</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.7310344827586207</v>
+        <v>0.0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7328767123287672</v>
+        <v>1.0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4303030303030303</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.4291497975708502</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L77" t="n">
         <v>0.7</v>
       </c>
-      <c r="K77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.3</v>
-      </c>
       <c r="M77" t="n">
-        <v>106.0</v>
+        <v>0.0</v>
       </c>
       <c r="N77" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="O77" t="n">
-        <v>107.0</v>
+        <v>146.0</v>
       </c>
       <c r="P77" t="n">
-        <v>243.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.3037249283667622</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0.7310344827586207</v>
+        <v>0.0</v>
       </c>
       <c r="S77" t="n">
-        <v>0.7328767123287672</v>
+        <v>1.0</v>
       </c>
       <c r="T77" t="n">
-        <v>0.4303030303030303</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0.4291497975708502</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V77" t="n">
         <v>75.0</v>
@@ -5082,13 +5118,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.7</v>
       </c>
-      <c r="K78" t="n">
-        <v>0.3</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M78" t="n">
         <v>349.0</v>
@@ -5150,13 +5186,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L79" t="n">
         <v>0.7</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.3</v>
       </c>
       <c r="M79" t="n">
         <v>349.0</v>
@@ -5218,13 +5254,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L80" t="n">
         <v>0.7</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.3</v>
       </c>
       <c r="M80" t="n">
         <v>349.0</v>
@@ -5286,13 +5322,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L81" t="n">
         <v>0.7</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.3</v>
       </c>
       <c r="M81" t="n">
         <v>349.0</v>
@@ -5348,13 +5384,13 @@
         <v>0.29494949494949496</v>
       </c>
       <c r="J82" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="L82" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="M82" t="n">
         <v>0.0</v>
@@ -5383,67 +5419,55 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B83" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E83" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J83" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L83" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="M83" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N83" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P83" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S83" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T83" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U83" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V83" t="n">
         <v>81.0</v>
@@ -5451,67 +5475,55 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B84" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E84" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J84" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L84" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="M84" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N84" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P84" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S84" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T84" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U84" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V84" t="n">
         <v>82.0</v>
@@ -5519,67 +5531,55 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B85" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E85" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J85" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="L85" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="M85" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N85" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P85" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T85" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U85" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V85" t="n">
         <v>83.0</v>
@@ -5587,67 +5587,55 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B86" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E86" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J86" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="K86" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="L86" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="M86" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N86" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P86" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S86" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T86" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U86" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V86" t="n">
         <v>84.0</v>
@@ -5676,13 +5664,13 @@
         <v>0.29494949494949496</v>
       </c>
       <c r="J87" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="L87" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="M87" t="n">
         <v>0.0</v>
@@ -5732,13 +5720,13 @@
         <v>0.29494949494949496</v>
       </c>
       <c r="J88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.7</v>
       </c>
-      <c r="K88" t="n">
-        <v>0.3</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="M88" t="n">
         <v>0.0</v>
@@ -5794,13 +5782,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J89" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="K89" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L89" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="M89" t="n">
         <v>349.0</v>
@@ -5862,13 +5850,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J90" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="K90" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L90" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="M90" t="n">
         <v>349.0</v>
@@ -5930,13 +5918,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J91" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="K91" t="n">
         <v>1.0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="M91" t="n">
         <v>349.0</v>
@@ -5992,13 +5980,13 @@
         <v>0.29494949494949496</v>
       </c>
       <c r="J92" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="L92" t="n">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="M92" t="n">
         <v>0.0</v>
@@ -6048,13 +6036,13 @@
         <v>0.29494949494949496</v>
       </c>
       <c r="J93" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L93" t="n">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="M93" t="n">
         <v>0.0</v>
@@ -6104,13 +6092,13 @@
         <v>0.29494949494949496</v>
       </c>
       <c r="J94" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="K94" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L94" t="n">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="M94" t="n">
         <v>0.0</v>
@@ -6139,67 +6127,55 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B95" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J95" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="L95" t="n">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="M95" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N95" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P95" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S95" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T95" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U95" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V95" t="n">
         <v>93.0</v>
@@ -6207,67 +6183,55 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B96" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J96" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="K96" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="L96" t="n">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="M96" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N96" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P96" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S96" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T96" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U96" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V96" t="n">
         <v>94.0</v>
@@ -6275,67 +6239,55 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>106.0</v>
+        <v>0.0</v>
       </c>
       <c r="B97" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="C97" t="n">
-        <v>107.0</v>
+        <v>146.0</v>
       </c>
       <c r="D97" t="n">
-        <v>243.0</v>
+        <v>349.0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3037249283667622</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.7310344827586207</v>
+        <v>0.0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7328767123287672</v>
+        <v>1.0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4303030303030303</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.4291497975708502</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J97" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="M97" t="n">
-        <v>106.0</v>
+        <v>0.0</v>
       </c>
       <c r="N97" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="O97" t="n">
-        <v>107.0</v>
+        <v>146.0</v>
       </c>
       <c r="P97" t="n">
-        <v>243.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.3037249283667622</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.7310344827586207</v>
+        <v>0.0</v>
       </c>
       <c r="S97" t="n">
-        <v>0.7328767123287672</v>
+        <v>1.0</v>
       </c>
       <c r="T97" t="n">
-        <v>0.4303030303030303</v>
-      </c>
-      <c r="U97" t="n">
-        <v>0.4291497975708502</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V97" t="n">
         <v>95.0</v>
@@ -6343,67 +6295,55 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B98" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E98" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J98" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K98" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="M98" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N98" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P98" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S98" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T98" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U98" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V98" t="n">
         <v>96.0</v>
@@ -6411,67 +6351,55 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="B99" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="E99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="J99" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K99" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="M99" t="n">
-        <v>349.0</v>
+        <v>0.0</v>
       </c>
       <c r="N99" t="n">
-        <v>146.0</v>
+        <v>0.0</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="P99" t="n">
-        <v>0.0</v>
+        <v>349.0</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0.705050505050505</v>
+        <v>0.0</v>
       </c>
       <c r="S99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T99" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U99" t="n">
-        <v>0.8270142180094787</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="V99" t="n">
         <v>97.0</v>
@@ -6506,13 +6434,13 @@
         <v>0.8270142180094787</v>
       </c>
       <c r="J100" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="M100" t="n">
         <v>349.0</v>
@@ -6543,1386 +6471,6 @@
       </c>
       <c r="V100" t="n">
         <v>98.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B101" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M101" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N101" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R101" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T101" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U101" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V101" t="n">
-        <v>99.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="B102" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>243.0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.3037249283667622</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.7310344827586207</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.7328767123287672</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.4303030303030303</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.4291497975708502</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M102" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="N102" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="O102" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="P102" t="n">
-        <v>243.0</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>0.3037249283667622</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0.7310344827586207</v>
-      </c>
-      <c r="S102" t="n">
-        <v>0.7328767123287672</v>
-      </c>
-      <c r="T102" t="n">
-        <v>0.4303030303030303</v>
-      </c>
-      <c r="U102" t="n">
-        <v>0.4291497975708502</v>
-      </c>
-      <c r="V102" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B103" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M103" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N103" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R103" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T103" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U103" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V103" t="n">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B104" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M104" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N104" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O104" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P104" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R104" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S104" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T104" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U104" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V104" t="n">
-        <v>102.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B105" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M105" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N105" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O105" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P105" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R105" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S105" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T105" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U105" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V105" t="n">
-        <v>103.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B106" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M106" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N106" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P106" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R106" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S106" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T106" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U106" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V106" t="n">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="D107" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0.29494949494949496</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O107" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="P107" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S107" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T107" t="n">
-        <v>0.29494949494949496</v>
-      </c>
-      <c r="V107" t="n">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B108" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M108" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N108" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R108" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T108" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U108" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V108" t="n">
-        <v>106.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B109" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M109" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N109" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R109" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T109" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U109" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V109" t="n">
-        <v>107.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B110" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M110" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N110" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R110" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T110" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U110" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V110" t="n">
-        <v>108.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B111" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M111" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N111" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R111" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T111" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U111" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V111" t="n">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.29494949494949496</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O112" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="P112" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T112" t="n">
-        <v>0.29494949494949496</v>
-      </c>
-      <c r="V112" t="n">
-        <v>110.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B113" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M113" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N113" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R113" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T113" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U113" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V113" t="n">
-        <v>111.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B114" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M114" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N114" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R114" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T114" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U114" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V114" t="n">
-        <v>112.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B115" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M115" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N115" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R115" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T115" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U115" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V115" t="n">
-        <v>113.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B116" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M116" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N116" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R116" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T116" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U116" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V116" t="n">
-        <v>114.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C117" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.29494949494949496</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O117" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="P117" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T117" t="n">
-        <v>0.29494949494949496</v>
-      </c>
-      <c r="V117" t="n">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C118" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.29494949494949496</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L118" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O118" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="P118" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S118" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T118" t="n">
-        <v>0.29494949494949496</v>
-      </c>
-      <c r="V118" t="n">
-        <v>116.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B119" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L119" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M119" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N119" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R119" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T119" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U119" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V119" t="n">
-        <v>117.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B120" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L120" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M120" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N120" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R120" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T120" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U120" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V120" t="n">
-        <v>118.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="B121" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M121" t="n">
-        <v>349.0</v>
-      </c>
-      <c r="N121" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="O121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R121" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="S121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T121" t="n">
-        <v>0.705050505050505</v>
-      </c>
-      <c r="U121" t="n">
-        <v>0.8270142180094787</v>
-      </c>
-      <c r="V121" t="n">
-        <v>119.0</v>
       </c>
     </row>
   </sheetData>
